--- a/backend/projects/project-a-123-sunset-blvd/data/07_SUBCONTRACTORS/SubcontractorPaymentTracker.xlsx
+++ b/backend/projects/project-a-123-sunset-blvd/data/07_SUBCONTRACTORS/SubcontractorPaymentTracker.xlsx
@@ -7,8 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Payments" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Payments" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,25 +424,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -675,6 +656,486 @@
         </is>
       </c>
     </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Item 9</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>33632</v>
+      </c>
+      <c r="C10" t="n">
+        <v>35035</v>
+      </c>
+      <c r="D10" t="n">
+        <v>45585</v>
+      </c>
+      <c r="E10" t="n">
+        <v>22892</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Item 9</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Item 10</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>19911</v>
+      </c>
+      <c r="C11" t="n">
+        <v>37848</v>
+      </c>
+      <c r="D11" t="n">
+        <v>45782</v>
+      </c>
+      <c r="E11" t="n">
+        <v>22454</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Item 10</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Item 11</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>12539</v>
+      </c>
+      <c r="C12" t="n">
+        <v>38347</v>
+      </c>
+      <c r="D12" t="n">
+        <v>9787</v>
+      </c>
+      <c r="E12" t="n">
+        <v>20897</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Item 11</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Item 12</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>41308</v>
+      </c>
+      <c r="C13" t="n">
+        <v>7877</v>
+      </c>
+      <c r="D13" t="n">
+        <v>2718</v>
+      </c>
+      <c r="E13" t="n">
+        <v>7746</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Item 12</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Item 13</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>40872</v>
+      </c>
+      <c r="C14" t="n">
+        <v>25232</v>
+      </c>
+      <c r="D14" t="n">
+        <v>8833</v>
+      </c>
+      <c r="E14" t="n">
+        <v>40835</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Item 13</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Item 14</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>33871</v>
+      </c>
+      <c r="C15" t="n">
+        <v>39206</v>
+      </c>
+      <c r="D15" t="n">
+        <v>9069</v>
+      </c>
+      <c r="E15" t="n">
+        <v>15814</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Item 14</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Item 15</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>43878</v>
+      </c>
+      <c r="C16" t="n">
+        <v>21624</v>
+      </c>
+      <c r="D16" t="n">
+        <v>7835</v>
+      </c>
+      <c r="E16" t="n">
+        <v>33090</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Item 15</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Item 16</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>29306</v>
+      </c>
+      <c r="C17" t="n">
+        <v>12329</v>
+      </c>
+      <c r="D17" t="n">
+        <v>33304</v>
+      </c>
+      <c r="E17" t="n">
+        <v>11016</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Item 16</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Item 17</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>9590</v>
+      </c>
+      <c r="C18" t="n">
+        <v>12137</v>
+      </c>
+      <c r="D18" t="n">
+        <v>45498</v>
+      </c>
+      <c r="E18" t="n">
+        <v>23032</v>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Item 17</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Item 18</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>21112</v>
+      </c>
+      <c r="C19" t="n">
+        <v>18107</v>
+      </c>
+      <c r="D19" t="n">
+        <v>13932</v>
+      </c>
+      <c r="E19" t="n">
+        <v>32706</v>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Item 18</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Item 19</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>25315</v>
+      </c>
+      <c r="C20" t="n">
+        <v>7039</v>
+      </c>
+      <c r="D20" t="n">
+        <v>25988</v>
+      </c>
+      <c r="E20" t="n">
+        <v>20764</v>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Item 19</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Item 20</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>27253</v>
+      </c>
+      <c r="C21" t="n">
+        <v>48374</v>
+      </c>
+      <c r="D21" t="n">
+        <v>33756</v>
+      </c>
+      <c r="E21" t="n">
+        <v>37376</v>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Item 20</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Item 21</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>34981</v>
+      </c>
+      <c r="C22" t="n">
+        <v>29417</v>
+      </c>
+      <c r="D22" t="n">
+        <v>46223</v>
+      </c>
+      <c r="E22" t="n">
+        <v>11271</v>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Item 21</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Item 22</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>5687</v>
+      </c>
+      <c r="C23" t="n">
+        <v>17670</v>
+      </c>
+      <c r="D23" t="n">
+        <v>25923</v>
+      </c>
+      <c r="E23" t="n">
+        <v>12126</v>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Item 22</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Item 23</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>3140</v>
+      </c>
+      <c r="C24" t="n">
+        <v>19305</v>
+      </c>
+      <c r="D24" t="n">
+        <v>24084</v>
+      </c>
+      <c r="E24" t="n">
+        <v>32478</v>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Item 23</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Item 24</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>9798</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1192</v>
+      </c>
+      <c r="D25" t="n">
+        <v>7660</v>
+      </c>
+      <c r="E25" t="n">
+        <v>1320</v>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Item 24</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Item 25</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>18525</v>
+      </c>
+      <c r="C26" t="n">
+        <v>16578</v>
+      </c>
+      <c r="D26" t="n">
+        <v>22030</v>
+      </c>
+      <c r="E26" t="n">
+        <v>29382</v>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Item 25</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Item 26</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>7021</v>
+      </c>
+      <c r="C27" t="n">
+        <v>12867</v>
+      </c>
+      <c r="D27" t="n">
+        <v>38941</v>
+      </c>
+      <c r="E27" t="n">
+        <v>22880</v>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Item 26</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Item 27</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>30646</v>
+      </c>
+      <c r="C28" t="n">
+        <v>38535</v>
+      </c>
+      <c r="D28" t="n">
+        <v>20899</v>
+      </c>
+      <c r="E28" t="n">
+        <v>37949</v>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Item 27</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Item 28</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>21646</v>
+      </c>
+      <c r="C29" t="n">
+        <v>39675</v>
+      </c>
+      <c r="D29" t="n">
+        <v>34498</v>
+      </c>
+      <c r="E29" t="n">
+        <v>20897</v>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Item 28</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/backend/projects/project-a-123-sunset-blvd/data/07_SUBCONTRACTORS/SubcontractorPaymentTracker.xlsx
+++ b/backend/projects/project-a-123-sunset-blvd/data/07_SUBCONTRACTORS/SubcontractorPaymentTracker.xlsx
@@ -424,7 +424,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F29"/>
+  <dimension ref="A1:F55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1136,6 +1136,630 @@
         </is>
       </c>
     </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Item 29</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>32261</v>
+      </c>
+      <c r="C30" t="n">
+        <v>1415</v>
+      </c>
+      <c r="D30" t="n">
+        <v>39049</v>
+      </c>
+      <c r="E30" t="n">
+        <v>20990</v>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Item 29</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Item 30</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>11839</v>
+      </c>
+      <c r="C31" t="n">
+        <v>39869</v>
+      </c>
+      <c r="D31" t="n">
+        <v>3118</v>
+      </c>
+      <c r="E31" t="n">
+        <v>28323</v>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Item 30</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Item 31</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>19916</v>
+      </c>
+      <c r="C32" t="n">
+        <v>2325</v>
+      </c>
+      <c r="D32" t="n">
+        <v>29456</v>
+      </c>
+      <c r="E32" t="n">
+        <v>38255</v>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Item 31</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Item 32</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>20294</v>
+      </c>
+      <c r="C33" t="n">
+        <v>20357</v>
+      </c>
+      <c r="D33" t="n">
+        <v>17945</v>
+      </c>
+      <c r="E33" t="n">
+        <v>27057</v>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Item 32</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Item 33</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>25962</v>
+      </c>
+      <c r="C34" t="n">
+        <v>28833</v>
+      </c>
+      <c r="D34" t="n">
+        <v>41602</v>
+      </c>
+      <c r="E34" t="n">
+        <v>30515</v>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Item 33</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Item 34</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>11975</v>
+      </c>
+      <c r="C35" t="n">
+        <v>18644</v>
+      </c>
+      <c r="D35" t="n">
+        <v>17266</v>
+      </c>
+      <c r="E35" t="n">
+        <v>47201</v>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Item 34</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Item 35</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>28383</v>
+      </c>
+      <c r="C36" t="n">
+        <v>17173</v>
+      </c>
+      <c r="D36" t="n">
+        <v>18972</v>
+      </c>
+      <c r="E36" t="n">
+        <v>12517</v>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Item 35</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Item 36</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>2601</v>
+      </c>
+      <c r="C37" t="n">
+        <v>44753</v>
+      </c>
+      <c r="D37" t="n">
+        <v>8789</v>
+      </c>
+      <c r="E37" t="n">
+        <v>30582</v>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Item 36</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Item 37</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>42402</v>
+      </c>
+      <c r="C38" t="n">
+        <v>31415</v>
+      </c>
+      <c r="D38" t="n">
+        <v>19583</v>
+      </c>
+      <c r="E38" t="n">
+        <v>17748</v>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Item 37</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Item 38</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>26367</v>
+      </c>
+      <c r="C39" t="n">
+        <v>23317</v>
+      </c>
+      <c r="D39" t="n">
+        <v>41941</v>
+      </c>
+      <c r="E39" t="n">
+        <v>27689</v>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Item 38</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Item 39</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>27209</v>
+      </c>
+      <c r="C40" t="n">
+        <v>37075</v>
+      </c>
+      <c r="D40" t="n">
+        <v>27201</v>
+      </c>
+      <c r="E40" t="n">
+        <v>8409</v>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Item 39</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Item 40</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>47327</v>
+      </c>
+      <c r="C41" t="n">
+        <v>37576</v>
+      </c>
+      <c r="D41" t="n">
+        <v>10205</v>
+      </c>
+      <c r="E41" t="n">
+        <v>11038</v>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Item 40</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Item 41</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>12576</v>
+      </c>
+      <c r="C42" t="n">
+        <v>23149</v>
+      </c>
+      <c r="D42" t="n">
+        <v>21362</v>
+      </c>
+      <c r="E42" t="n">
+        <v>25004</v>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Item 41</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Item 42</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>9857</v>
+      </c>
+      <c r="C43" t="n">
+        <v>20227</v>
+      </c>
+      <c r="D43" t="n">
+        <v>33525</v>
+      </c>
+      <c r="E43" t="n">
+        <v>48480</v>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Item 42</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Item 43</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>5438</v>
+      </c>
+      <c r="C44" t="n">
+        <v>47229</v>
+      </c>
+      <c r="D44" t="n">
+        <v>2110</v>
+      </c>
+      <c r="E44" t="n">
+        <v>15802</v>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Item 43</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Item 44</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>20190</v>
+      </c>
+      <c r="C45" t="n">
+        <v>16191</v>
+      </c>
+      <c r="D45" t="n">
+        <v>20286</v>
+      </c>
+      <c r="E45" t="n">
+        <v>37864</v>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Item 44</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Item 45</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>48890</v>
+      </c>
+      <c r="C46" t="n">
+        <v>37007</v>
+      </c>
+      <c r="D46" t="n">
+        <v>6987</v>
+      </c>
+      <c r="E46" t="n">
+        <v>17009</v>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Item 45</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Item 46</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>15613</v>
+      </c>
+      <c r="C47" t="n">
+        <v>42766</v>
+      </c>
+      <c r="D47" t="n">
+        <v>30701</v>
+      </c>
+      <c r="E47" t="n">
+        <v>12145</v>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>Item 46</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Item 47</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>19894</v>
+      </c>
+      <c r="C48" t="n">
+        <v>17815</v>
+      </c>
+      <c r="D48" t="n">
+        <v>32070</v>
+      </c>
+      <c r="E48" t="n">
+        <v>9033</v>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Item 47</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Item 48</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>4694</v>
+      </c>
+      <c r="C49" t="n">
+        <v>12690</v>
+      </c>
+      <c r="D49" t="n">
+        <v>9207</v>
+      </c>
+      <c r="E49" t="n">
+        <v>29043</v>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>Item 48</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Item 49</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>38617</v>
+      </c>
+      <c r="C50" t="n">
+        <v>45580</v>
+      </c>
+      <c r="D50" t="n">
+        <v>41492</v>
+      </c>
+      <c r="E50" t="n">
+        <v>25110</v>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Item 49</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Item 50</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>17178</v>
+      </c>
+      <c r="C51" t="n">
+        <v>22442</v>
+      </c>
+      <c r="D51" t="n">
+        <v>37847</v>
+      </c>
+      <c r="E51" t="n">
+        <v>36803</v>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>Item 50</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Item 51</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>45523</v>
+      </c>
+      <c r="C52" t="n">
+        <v>10778</v>
+      </c>
+      <c r="D52" t="n">
+        <v>44324</v>
+      </c>
+      <c r="E52" t="n">
+        <v>37972</v>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>Item 51</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Item 52</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>26937</v>
+      </c>
+      <c r="C53" t="n">
+        <v>3048</v>
+      </c>
+      <c r="D53" t="n">
+        <v>4390</v>
+      </c>
+      <c r="E53" t="n">
+        <v>18639</v>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>Item 52</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Item 53</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>25183</v>
+      </c>
+      <c r="C54" t="n">
+        <v>18932</v>
+      </c>
+      <c r="D54" t="n">
+        <v>8662</v>
+      </c>
+      <c r="E54" t="n">
+        <v>12879</v>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>Item 53</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Item 54</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>24726</v>
+      </c>
+      <c r="C55" t="n">
+        <v>8502</v>
+      </c>
+      <c r="D55" t="n">
+        <v>48918</v>
+      </c>
+      <c r="E55" t="n">
+        <v>32426</v>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>Item 54</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
